--- a/train_results_True_1024_LinearRegression.xlsx
+++ b/train_results_True_1024_LinearRegression.xlsx
@@ -396,10 +396,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5516598751019501</v>
+        <v>26.63300822773551</v>
       </c>
       <c r="C2">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5284105260215847</v>
+        <v>26.47002819532973</v>
       </c>
       <c r="C3">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.141310419733055</v>
+        <v>30.76651168797723</v>
       </c>
       <c r="C4">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.9976552252139002</v>
+        <v>15.77216974217652</v>
       </c>
       <c r="C5">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.08807959444678863</v>
+        <v>22.14837688954641</v>
       </c>
       <c r="C6">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.028939443276842</v>
+        <v>29.97878101556161</v>
       </c>
       <c r="C7">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.7647710584128841</v>
+        <v>17.40470874018549</v>
       </c>
       <c r="C8">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.607355442177807</v>
+        <v>27.0234391725118</v>
       </c>
       <c r="C9">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2966401276364218</v>
+        <v>24.8452968142945</v>
       </c>
       <c r="C10">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.09978210677996248</v>
+        <v>22.06634122339952</v>
       </c>
       <c r="C11">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.3169660823838538</v>
+        <v>20.54386198066537</v>
       </c>
       <c r="C12">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.3751494580528145</v>
+        <v>20.13599127343716</v>
       </c>
       <c r="C13">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.320018622577426</v>
+        <v>20.52246339879761</v>
       </c>
       <c r="C14">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.04591862751721319</v>
+        <v>23.08771650213162</v>
       </c>
       <c r="C15">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9669882013626027</v>
+        <v>29.54449722637425</v>
       </c>
       <c r="C16">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.2467600457327599</v>
+        <v>21.03601262492316</v>
       </c>
       <c r="C17">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.04429487879098834</v>
+        <v>22.45531169240016</v>
       </c>
       <c r="C18">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5589642000181242</v>
+        <v>26.68421220370168</v>
       </c>
       <c r="C19">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.6989543559958131</v>
+        <v>17.86608975587312</v>
       </c>
       <c r="C20">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.205974823185442</v>
+        <v>14.31183058554902</v>
       </c>
       <c r="C21">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.5285586750538324</v>
+        <v>19.0605788362225</v>
       </c>
       <c r="C22">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-2.17103927798819</v>
+        <v>7.546641780747531</v>
       </c>
       <c r="C23">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.4619694397609855</v>
+        <v>19.52737537699401</v>
       </c>
       <c r="C24">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6219065633759647</v>
+        <v>27.1254438435337</v>
       </c>
       <c r="C25">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6186713461437214</v>
+        <v>27.10276467916105</v>
       </c>
       <c r="C26">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.949377866149208</v>
+        <v>29.42104718939324</v>
       </c>
       <c r="C27">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.8744917292667053</v>
+        <v>16.63555694890198</v>
       </c>
       <c r="C28">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.4395257369232748</v>
+        <v>25.84693781299052</v>
       </c>
       <c r="C29">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5417040939015721</v>
+        <v>26.56321730425401</v>
       </c>
       <c r="C30">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.1913219651472543</v>
+        <v>21.42463856619607</v>
       </c>
       <c r="C31">
-        <v>0.3187087719679989</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.7727843035723343</v>
+        <v>17.34853516942237</v>
       </c>
       <c r="C32">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.1203685266141576</v>
+        <v>21.92202856500645</v>
       </c>
       <c r="C33">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-1.262909503405166</v>
+        <v>13.91271334595889</v>
       </c>
       <c r="C34">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.08043917462116236</v>
+        <v>22.20193692111848</v>
       </c>
       <c r="C35">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.2744957476705197</v>
+        <v>20.84158285465357</v>
       </c>
       <c r="C36">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,10 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.665642608022652</v>
+        <v>34.44212758343456</v>
       </c>
       <c r="C37">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -792,10 +792,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.1391009218188388</v>
+        <v>21.79071278636063</v>
       </c>
       <c r="C38">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -803,10 +803,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.3031520691391107</v>
+        <v>20.64069945850183</v>
       </c>
       <c r="C39">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -814,10 +814,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.7905812915759823</v>
+        <v>17.22377667955956</v>
       </c>
       <c r="C40">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -825,10 +825,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.6015582282758578</v>
+        <v>18.54884538903623</v>
       </c>
       <c r="C41">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -836,10 +836,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-2.345520793250941</v>
+        <v>6.323510633572882</v>
       </c>
       <c r="C42">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -847,10 +847,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.001795331575566267</v>
+        <v>22.77840822095948</v>
       </c>
       <c r="C43">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -858,10 +858,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.7243341733870613</v>
+        <v>27.84347062102109</v>
       </c>
       <c r="C44">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -869,10 +869,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.1626135367173671</v>
+        <v>21.62588723684265</v>
       </c>
       <c r="C45">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -880,10 +880,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.3884460719521401</v>
+        <v>20.04278081164279</v>
       </c>
       <c r="C46">
-        <v>-2.106367039663857</v>
+        <v>8.000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -891,10 +891,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.0728803886121224</v>
+        <v>23.27672087734125</v>
       </c>
       <c r="C47">
-        <v>-1.535760966338715</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -902,10 +902,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.661184520525287</v>
+        <v>11.12076958132828</v>
       </c>
       <c r="C48">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -913,10 +913,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.6533486965783346</v>
+        <v>18.18578953860916</v>
       </c>
       <c r="C49">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -924,10 +924,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.2912091018121894</v>
+        <v>24.8072248337943</v>
       </c>
       <c r="C50">
-        <v>-1.393109448007429</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -935,10 +935,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.2765729549922263</v>
+        <v>20.82702144411967</v>
       </c>
       <c r="C51">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -946,10 +946,10 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.7523606531333016</v>
+        <v>17.49170679968572</v>
       </c>
       <c r="C52">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -957,10 +957,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.509728587908161</v>
+        <v>19.19257944417917</v>
       </c>
       <c r="C53">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -968,10 +968,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.07380665323230062</v>
+        <v>22.24843149381176</v>
       </c>
       <c r="C54">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -979,10 +979,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.01811407700050168</v>
+        <v>22.63884147250166</v>
       </c>
       <c r="C55">
-        <v>-2.819624631320286</v>
+        <v>2.999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -990,10 +990,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1241296109254429</v>
+        <v>23.63598254460442</v>
       </c>
       <c r="C56">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1001,10 +1001,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1229057561996484</v>
+        <v>23.62740321267644</v>
       </c>
       <c r="C57">
-        <v>-2.249018557995143</v>
+        <v>7.000000000000002</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1012,10 +1012,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.3181519669558667</v>
+        <v>20.53554882293747</v>
       </c>
       <c r="C58">
-        <v>-0.5372003380197153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1023,10 +1023,10 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1124009699579272</v>
+        <v>21.97788185524432</v>
       </c>
       <c r="C59">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1034,10 +1034,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.7828862606477931</v>
+        <v>28.25392602973784</v>
       </c>
       <c r="C60">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1045,10 +1045,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.8047805773093937</v>
+        <v>17.12423840685477</v>
       </c>
       <c r="C61">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1056,10 +1056,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-1.056904781077878</v>
+        <v>15.35682501569152</v>
       </c>
       <c r="C62">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1067,10 +1067,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-2.306750617947662</v>
+        <v>6.595293056618965</v>
       </c>
       <c r="C63">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1078,10 +1078,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.359214084289583</v>
+        <v>13.23760955448879</v>
       </c>
       <c r="C64">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1089,10 +1089,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.4563031527520916</v>
+        <v>25.96454901001861</v>
       </c>
       <c r="C65">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1100,10 +1100,10 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.2840527019225471</v>
+        <v>20.77458774402438</v>
       </c>
       <c r="C66">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1111,10 +1111,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.306952059561877</v>
+        <v>24.91758438645694</v>
       </c>
       <c r="C67">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.03380068172740121</v>
+        <v>22.52887695960759</v>
       </c>
       <c r="C68">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5957346948962581</v>
+        <v>26.94197668674588</v>
       </c>
       <c r="C69">
-        <v>-0.9651548930135722</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1144,10 +1144,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.2007311076483764</v>
+        <v>24.17296594035797</v>
       </c>
       <c r="C70">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1155,10 +1155,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-1.990971362775195</v>
+        <v>8.808934095048848</v>
       </c>
       <c r="C71">
-        <v>-0.8225033746822865</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1166,10 +1166,10 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-1.239884540586994</v>
+        <v>14.07412041044383</v>
       </c>
       <c r="C72">
-        <v>0.03340573530542768</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.09684028504502959</v>
+        <v>22.08696365889369</v>
       </c>
       <c r="C73">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.298205228692403</v>
+        <v>20.67537725586828</v>
       </c>
       <c r="C74">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7876337609639115</v>
+        <v>28.28720643482328</v>
       </c>
       <c r="C75">
-        <v>-0.2518973013571441</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.06988372163121888</v>
+        <v>22.27593159789037</v>
       </c>
       <c r="C76">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.4212584487632162</v>
+        <v>25.71888247664537</v>
       </c>
       <c r="C77">
-        <v>-0.6798518563510009</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.123772747208313</v>
+        <v>14.88807454662785</v>
       </c>
       <c r="C78">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1243,10 +1243,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.100723593682701</v>
+        <v>30.48199437946813</v>
       </c>
       <c r="C79">
-        <v>-1.678412484670001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1254,10 +1254,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-1.17631038649622</v>
+        <v>14.51978096025398</v>
       </c>
       <c r="C80">
-        <v>-1.821064003001286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1265,10 +1265,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.2622243151313645</v>
+        <v>24.6040388669018</v>
       </c>
       <c r="C81">
-        <v>-1.250457929676143</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1276,10 +1276,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.4694060920707361</v>
+        <v>19.47524377407283</v>
       </c>
       <c r="C82">
-        <v>0.1760572536367133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.372438416258527</v>
+        <v>32.38673977407943</v>
       </c>
       <c r="C83">
-        <v>-0.1092457830258584</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.547393069097363</v>
+        <v>33.61318765830406</v>
       </c>
       <c r="C84">
-        <v>-0.3945488196884297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.795219818031714</v>
+        <v>17.19126019105672</v>
       </c>
       <c r="C85">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.590031772524914</v>
+        <v>18.62964688267456</v>
       </c>
       <c r="C86">
-        <v>-1.107806411344858</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.7437854641465229</v>
+        <v>27.97982592229653</v>
       </c>
       <c r="C87">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1342,10 +1342,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-1.87599791898286</v>
+        <v>9.614908298038589</v>
       </c>
       <c r="C88">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1353,10 +1353,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.206661920298232</v>
+        <v>21.31710409807108</v>
       </c>
       <c r="C89">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.637954259087191</v>
+        <v>34.24802976197878</v>
       </c>
       <c r="C90">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-1.211813605860881</v>
+        <v>14.27090019277269</v>
       </c>
       <c r="C91">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.9708137477757413</v>
+        <v>29.57131465150852</v>
       </c>
       <c r="C92">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.5894374178646973</v>
+        <v>18.63381336240902</v>
       </c>
       <c r="C93">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1408,10 +1408,10 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.0233373101437673</v>
+        <v>22.92941943219786</v>
       </c>
       <c r="C94">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1419,10 +1419,10 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.820120910778758</v>
+        <v>28.51494428293647</v>
       </c>
       <c r="C95">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.7119022118405265</v>
+        <v>27.75632145014677</v>
       </c>
       <c r="C96">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.179730559369015</v>
+        <v>31.03584032944836</v>
       </c>
       <c r="C97">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.2093488220486794</v>
+        <v>24.23337689497739</v>
       </c>
       <c r="C98">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.7010678401082142</v>
+        <v>17.851274041767</v>
       </c>
       <c r="C99">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1474,10 +1474,10 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.2319632578210637</v>
+        <v>21.13973944174773</v>
       </c>
       <c r="C100">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1485,10 +1485,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.3917359839421641</v>
+        <v>25.51192733753153</v>
       </c>
       <c r="C101">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.6255512241189923</v>
+        <v>18.38065232580212</v>
       </c>
       <c r="C102">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.8220968828805449</v>
+        <v>17.00284954416537</v>
       </c>
       <c r="C103">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.5697703658749748</v>
+        <v>26.75996440026614</v>
       </c>
       <c r="C104">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.416557583217646</v>
+        <v>32.69601911071193</v>
       </c>
       <c r="C105">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>2.62405793594318</v>
+        <v>41.16070540953775</v>
       </c>
       <c r="C106">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.5619457388607748</v>
+        <v>18.82653250991979</v>
       </c>
       <c r="C107">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>3.334315035256974</v>
+        <v>46.13967168779589</v>
       </c>
       <c r="C108">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-1.371663017148031</v>
+        <v>13.15034141318841</v>
       </c>
       <c r="C109">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.7225068477735107</v>
+        <v>17.70098466583826</v>
       </c>
       <c r="C110">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.8062587327099765</v>
+        <v>28.41776916534264</v>
       </c>
       <c r="C111">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.0899964142421</v>
+        <v>30.40679588480024</v>
       </c>
       <c r="C112">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.3937168890142638</v>
+        <v>20.00583190900383</v>
       </c>
       <c r="C113">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.5501475499500221</v>
+        <v>18.90923887749839</v>
       </c>
       <c r="C114">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1639,10 +1639,10 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.811528321691098</v>
+        <v>35.46479958423058</v>
       </c>
       <c r="C115">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.7692573161684239</v>
+        <v>17.37325966899425</v>
       </c>
       <c r="C116">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.9259765338096865</v>
+        <v>29.25700174064326</v>
       </c>
       <c r="C117">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.03394207617333477</v>
+        <v>23.00375979782186</v>
       </c>
       <c r="C118">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1683,10 +1683,10 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.8323042870717737</v>
+        <v>16.93129472084043</v>
       </c>
       <c r="C119">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1694,10 +1694,10 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.01958468086943133</v>
+        <v>22.62853240684199</v>
       </c>
       <c r="C120">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.2007969910660047</v>
+        <v>24.1734277890533</v>
       </c>
       <c r="C121">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-1.784543411672555</v>
+        <v>10.25601263664028</v>
       </c>
       <c r="C122">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1727,10 +1727,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.1723259606570148</v>
+        <v>21.55780226969149</v>
       </c>
       <c r="C123">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1738,10 +1738,10 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.708629268375335</v>
+        <v>34.74346794668855</v>
       </c>
       <c r="C124">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1749,10 +1749,10 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.3872960708132019</v>
+        <v>25.48080314634942</v>
       </c>
       <c r="C125">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.138838464325209</v>
+        <v>30.74918305778273</v>
       </c>
       <c r="C126">
-        <v>0.6040118086305701</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.4528292158019138</v>
+        <v>25.94019639890857</v>
       </c>
       <c r="C127">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.4187999740032222</v>
+        <v>25.70164834700726</v>
       </c>
       <c r="C128">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.6488061693196174</v>
+        <v>27.31401250553127</v>
       </c>
       <c r="C129">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1804,10 +1804,10 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.185197129421215</v>
+        <v>21.4675742166377</v>
       </c>
       <c r="C130">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1815,10 +1815,10 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.9345711183895788</v>
+        <v>29.31725055313703</v>
       </c>
       <c r="C131">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.05332587777896599</v>
+        <v>22.39200357557377</v>
       </c>
       <c r="C132">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.2985910108211641</v>
+        <v>20.67267288837697</v>
       </c>
       <c r="C133">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1848,10 +1848,10 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-1.840502485729676</v>
+        <v>9.863734484176698</v>
       </c>
       <c r="C134">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1859,10 +1859,10 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.02273726245806371</v>
+        <v>22.6064325257786</v>
       </c>
       <c r="C135">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.603730901414562</v>
+        <v>26.99803081509896</v>
       </c>
       <c r="C136">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1129644449906548</v>
+        <v>23.55771372513866</v>
       </c>
       <c r="C137">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.7405312500895392</v>
+        <v>27.95701358847036</v>
       </c>
       <c r="C138">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -1903,10 +1903,10 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.9970084036621656</v>
+        <v>29.75494155007115</v>
       </c>
       <c r="C139">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1914,10 +1914,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.4571760688112465</v>
+        <v>25.97066823026503</v>
       </c>
       <c r="C140">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -1925,10 +1925,10 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2.274437115922745</v>
+        <v>38.70983195154555</v>
       </c>
       <c r="C141">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1936,10 +1936,10 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.5922228787117998</v>
+        <v>18.61428703083059</v>
       </c>
       <c r="C142">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1947,10 +1947,10 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.3213906689338085</v>
+        <v>20.51284523018341</v>
       </c>
       <c r="C143">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -1958,10 +1958,10 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.6818165615096226</v>
+        <v>17.9862272397686</v>
       </c>
       <c r="C144">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -1969,10 +1969,10 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.3001257176402936</v>
+        <v>24.86973111436116</v>
       </c>
       <c r="C145">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1980,10 +1980,10 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.08925542850755208</v>
+        <v>22.14013418680818</v>
       </c>
       <c r="C146">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -1991,10 +1991,10 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.530867523501553</v>
+        <v>33.4973420943092</v>
       </c>
       <c r="C147">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2002,10 +2002,10 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5872168821367031</v>
+        <v>26.88226605163176</v>
       </c>
       <c r="C148">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2013,10 +2013,10 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.3413833342064268</v>
+        <v>25.15895072484101</v>
       </c>
       <c r="C149">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2024,10 +2024,10 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.105003730426257</v>
+        <v>30.51199852378867</v>
       </c>
       <c r="C150">
-        <v>0.4613602902992845</v>
+        <v>26</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.11433003996792</v>
+        <v>23.56728666900382</v>
       </c>
       <c r="C151">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2046,10 +2046,10 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.2009302074946929</v>
+        <v>21.35728392139569</v>
       </c>
       <c r="C152">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2057,10 +2057,10 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-1.34748554487555</v>
+        <v>13.31982767281821</v>
       </c>
       <c r="C153">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2068,10 +2068,10 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.5507901365407104</v>
+        <v>26.62691128203584</v>
       </c>
       <c r="C154">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.8165825058575612</v>
+        <v>28.4901397455394</v>
       </c>
       <c r="C155">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2090,10 +2090,10 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.2257253226180472</v>
+        <v>21.18346792971608</v>
       </c>
       <c r="C156">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2101,10 +2101,10 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-1.831846920948278</v>
+        <v>9.924410773378867</v>
       </c>
       <c r="C157">
-        <v>0.8893148452931414</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.321599994493081</v>
+        <v>25.02026773047286</v>
       </c>
       <c r="C158">
-        <v>0.7466633269618558</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.2198737460288392</v>
+        <v>24.30715756063927</v>
       </c>
       <c r="C159">
-        <v>1.031966363624427</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
